--- a/Shopclues Testcases.xlsx
+++ b/Shopclues Testcases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BE67C5-305C-4282-90FE-4AF2732104A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756E7015-840F-4C38-92D0-DF6A3448CC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E2AC61F-E9ED-4FD0-8E76-7B08B2C41ED6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6E2AC61F-E9ED-4FD0-8E76-7B08B2C41ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -2364,8 +2364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7716149D-050B-4C5C-ADAF-31ADA1893794}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3678,7 +3678,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4316,8 +4316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A20C9C-1DFB-42E5-A1A2-9ECB5BE07B47}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5464,8 +5464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02404A4C-1DB3-4FF3-9BA3-15087DA319EE}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Shopclues Testcases.xlsx
+++ b/Shopclues Testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756E7015-840F-4C38-92D0-DF6A3448CC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC822B9-9916-4A9D-80E8-84822CDFF438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6E2AC61F-E9ED-4FD0-8E76-7B08B2C41ED6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="441">
   <si>
     <t>Verify when click on register link</t>
   </si>
@@ -738,13 +738,7 @@
     <t>Verify trimmed value of firstname,lastname and mobile no.</t>
   </si>
   <si>
-    <t>Profile updated successfully</t>
-  </si>
-  <si>
     <t>Verify filling information of firstname,lastname,mobile no.is as per enter at registration time</t>
-  </si>
-  <si>
-    <t>Verify login with old mobile no. and new mobile no.</t>
   </si>
   <si>
     <t>Step 1 :  Go to register Link
@@ -1305,10 +1299,6 @@
     <t xml:space="preserve">firstname=" sjfeud"           
   lastname="fbjhfe"        
 mobile no.="23263274234 "                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">old mobile no.="23263274234 "                 
- new mobile no.="123434342332 "                        </t>
   </si>
   <si>
     <t>User redirect to password tab</t>
@@ -1954,6 +1944,28 @@
 Step 2 : enter already exist email id
 Step 3 :enter mobile no
 Step 4: click on register</t>
+  </si>
+  <si>
+    <t>Verify login with  new mobile no.</t>
+  </si>
+  <si>
+    <t>Verify login with old mobile no.</t>
+  </si>
+  <si>
+    <t>Step 1: go to login link                       
+ Step2: Go to My profile                       
+Step3: enter new mobile no.                                                                   
+Step4:click on update profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old mobile no.="23263274234 "                 
+                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new mobile no.="123434342332 "  </t>
+  </si>
+  <si>
+    <t>System should Fire validation message"Please enter mobile no. same as registartion time entered"</t>
   </si>
 </sst>
 </file>
@@ -1990,6 +2002,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2364,8 +2377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7716149D-050B-4C5C-ADAF-31ADA1893794}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2470,7 +2483,7 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -2531,10 +2544,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="5" t="s">
@@ -2565,10 +2578,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
@@ -2599,10 +2612,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="5" t="s">
@@ -2633,10 +2646,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="5" t="s">
@@ -2667,10 +2680,10 @@
         <v>5</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5" t="s">
@@ -2701,10 +2714,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="5" t="s">
@@ -2735,14 +2748,14 @@
         <v>7</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2769,7 +2782,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>46</v>
@@ -2803,7 +2816,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>47</v>
@@ -2837,7 +2850,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>48</v>
@@ -2871,10 +2884,10 @@
         <v>11</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="5"/>
@@ -2903,10 +2916,10 @@
         <v>30</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="5"/>
@@ -2935,10 +2948,10 @@
         <v>31</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="5" t="s">
@@ -2969,10 +2982,10 @@
         <v>32</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="5" t="s">
@@ -3003,10 +3016,10 @@
         <v>49</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="5" t="s">
@@ -3037,14 +3050,14 @@
         <v>33</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -3071,14 +3084,14 @@
         <v>34</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="5" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -3105,10 +3118,10 @@
         <v>35</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="5" t="s">
@@ -3139,10 +3152,10 @@
         <v>36</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="5" t="s">
@@ -3173,10 +3186,10 @@
         <v>37</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="5" t="s">
@@ -3207,10 +3220,10 @@
         <v>38</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="5" t="s">
@@ -3241,10 +3254,10 @@
         <v>39</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="5" t="s">
@@ -3275,10 +3288,10 @@
         <v>40</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="5" t="s">
@@ -3309,10 +3322,10 @@
         <v>103</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="5" t="s">
@@ -3343,14 +3356,14 @@
         <v>41</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -3377,10 +3390,10 @@
         <v>42</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="5" t="s">
@@ -3411,10 +3424,10 @@
         <v>53</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="5" t="s">
@@ -3445,14 +3458,14 @@
         <v>54</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -3479,14 +3492,14 @@
         <v>55</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -3513,14 +3526,14 @@
         <v>57</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
@@ -3547,14 +3560,14 @@
         <v>58</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="5" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -3581,10 +3594,10 @@
         <v>168</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="5" t="s">
@@ -3615,10 +3628,10 @@
         <v>170</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="5" t="s">
@@ -3649,10 +3662,10 @@
         <v>172</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="5" t="s">
@@ -3677,8 +3690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06253F56-07A6-4B5C-9872-3E177B65BF39}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3782,7 +3795,7 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -3843,7 +3856,7 @@
         <v>63</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>64</v>
@@ -3877,14 +3890,14 @@
         <v>65</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -3911,7 +3924,7 @@
         <v>68</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>75</v>
@@ -3945,7 +3958,7 @@
         <v>69</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>76</v>
@@ -3979,14 +3992,14 @@
         <v>70</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -4013,7 +4026,7 @@
         <v>71</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>72</v>
@@ -4047,10 +4060,10 @@
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="5" t="s">
@@ -4081,10 +4094,10 @@
         <v>30</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="5" t="s">
@@ -4115,10 +4128,10 @@
         <v>11</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="5" t="s">
@@ -4149,10 +4162,10 @@
         <v>84</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="5" t="s">
@@ -4183,10 +4196,10 @@
         <v>87</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="5" t="s">
@@ -4217,10 +4230,10 @@
         <v>88</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="5" t="s">
@@ -4251,10 +4264,10 @@
         <v>89</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="5" t="s">
@@ -4285,14 +4298,14 @@
         <v>34</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>86</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -4413,14 +4426,14 @@
         <v>106</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>104</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -4447,7 +4460,7 @@
         <v>208</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>104</v>
@@ -4481,7 +4494,7 @@
         <v>131</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>142</v>
@@ -4515,7 +4528,7 @@
         <v>132</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>141</v>
@@ -4549,10 +4562,10 @@
         <v>139</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="5" t="s">
@@ -4583,10 +4596,10 @@
         <v>140</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="5" t="s">
@@ -4617,7 +4630,7 @@
         <v>112</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>135</v>
@@ -4651,10 +4664,10 @@
         <v>107</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="5" t="s">
@@ -4685,10 +4698,10 @@
         <v>113</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="5" t="s">
@@ -4719,10 +4732,10 @@
         <v>111</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="5" t="s">
@@ -4753,10 +4766,10 @@
         <v>114</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="5" t="s">
@@ -4787,10 +4800,10 @@
         <v>115</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="5" t="s">
@@ -4821,10 +4834,10 @@
         <v>116</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="5" t="s">
@@ -4855,10 +4868,10 @@
         <v>117</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="5" t="s">
@@ -4889,10 +4902,10 @@
         <v>118</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="5" t="s">
@@ -4923,10 +4936,10 @@
         <v>119</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="5" t="s">
@@ -4957,10 +4970,10 @@
         <v>120</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="5" t="s">
@@ -4991,10 +5004,10 @@
         <v>121</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="5" t="s">
@@ -5025,10 +5038,10 @@
         <v>122</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="5" t="s">
@@ -5059,10 +5072,10 @@
         <v>110</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="5" t="s">
@@ -5093,10 +5106,10 @@
         <v>123</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="5" t="s">
@@ -5127,10 +5140,10 @@
         <v>109</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="5" t="s">
@@ -5161,10 +5174,10 @@
         <v>124</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="5" t="s">
@@ -5195,10 +5208,10 @@
         <v>108</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="5" t="s">
@@ -5229,10 +5242,10 @@
         <v>125</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="5" t="s">
@@ -5263,10 +5276,10 @@
         <v>126</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="5" t="s">
@@ -5297,10 +5310,10 @@
         <v>127</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="5" t="s">
@@ -5331,10 +5344,10 @@
         <v>128</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="5" t="s">
@@ -5365,10 +5378,10 @@
         <v>164</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="5" t="s">
@@ -5399,10 +5412,10 @@
         <v>129</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="5" t="s">
@@ -5433,10 +5446,10 @@
         <v>130</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="5" t="s">
@@ -5464,8 +5477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02404A4C-1DB3-4FF3-9BA3-15087DA319EE}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5561,14 +5574,14 @@
         <v>176</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>177</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -5595,7 +5608,7 @@
         <v>206</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>177</v>
@@ -5629,10 +5642,10 @@
         <v>180</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="5" t="s">
@@ -5663,10 +5676,10 @@
         <v>183</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="5" t="s">
@@ -5697,10 +5710,10 @@
         <v>182</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="5" t="s">
@@ -5731,10 +5744,10 @@
         <v>186</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="5" t="s">
@@ -5765,10 +5778,10 @@
         <v>187</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="5" t="s">
@@ -5799,10 +5812,10 @@
         <v>189</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="5" t="s">
@@ -5833,10 +5846,10 @@
         <v>192</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="5" t="s">
@@ -5867,10 +5880,10 @@
         <v>194</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="5" t="s">
@@ -5901,10 +5914,10 @@
         <v>196</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="5" t="s">
@@ -5935,10 +5948,10 @@
         <v>198</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="5" t="s">
@@ -5969,10 +5982,10 @@
         <v>200</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="5" t="s">
@@ -6003,10 +6016,10 @@
         <v>202</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="5" t="s">
@@ -6037,10 +6050,10 @@
         <v>204</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="5" t="s">
@@ -6071,10 +6084,10 @@
         <v>209</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="5" t="s">
@@ -6105,10 +6118,10 @@
         <v>211</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="5" t="s">
@@ -6139,10 +6152,10 @@
         <v>213</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="5" t="s">
@@ -6173,10 +6186,10 @@
         <v>215</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="5" t="s">
@@ -6207,10 +6220,10 @@
         <v>216</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="5" t="s">
@@ -6241,10 +6254,10 @@
         <v>217</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="5" t="s">
@@ -6275,10 +6288,10 @@
         <v>218</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="5" t="s">
@@ -6309,10 +6322,10 @@
         <v>223</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="5" t="s">
@@ -6343,10 +6356,10 @@
         <v>225</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="5" t="s">
@@ -6377,10 +6390,10 @@
         <v>226</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="5" t="s">
@@ -6411,7 +6424,7 @@
         <v>227</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>228</v>
@@ -6445,14 +6458,14 @@
         <v>232</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -6476,17 +6489,17 @@
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -6510,18 +6523,16 @@
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="5" t="s">
-        <v>235</v>
+        <v>436</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>340</v>
+        <v>438</v>
       </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="5" t="s">
-        <v>233</v>
-      </c>
+      <c r="I31" s="5"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6" t="s">
@@ -6534,9 +6545,39 @@
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F32"/>
-      <c r="G32"/>
+    <row r="32" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F33"/>
